--- a/04_Data_set_1.xlsx
+++ b/04_Data_set_1.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gclawson/Documents/UCSB/Winter 2020/ESM260/ESM260_PS1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B181622F-EBFC-6641-AB53-7C7B75EE40A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412BAA28-5F33-044F-93DE-C9FDA724E8A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="460" windowWidth="23860" windowHeight="16600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="460" windowWidth="23860" windowHeight="16600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="adults" sheetId="2" r:id="rId2"/>
     <sheet name="recruits" sheetId="3" r:id="rId3"/>
     <sheet name="recruits_3" sheetId="4" r:id="rId4"/>
+    <sheet name="adults_5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="51">
   <si>
     <t>Data sets for Rarotonga and Aitutaki</t>
   </si>
@@ -275,6 +276,9 @@
   </si>
   <si>
     <t>recruits_100m</t>
+  </si>
+  <si>
+    <t>density_per_micro</t>
   </si>
 </sst>
 </file>
@@ -1930,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -4216,8 +4220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6ABD954-0D98-DC44-8B91-3DAE86411C6D}">
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -6110,4 +6114,375 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9552DB63-D34B-7C47-B10A-8FC5D327CEA8}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16">
+      <c r="A1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16">
+      <c r="A2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>2009</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>250</v>
+      </c>
+      <c r="E2">
+        <v>32</v>
+      </c>
+      <c r="F2">
+        <f>D2/adults!D12</f>
+        <v>113.63636363636363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16">
+      <c r="A3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>2009</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>120</v>
+      </c>
+      <c r="E3">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <f>D3/adults!D11</f>
+        <v>42.857142857142861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16">
+      <c r="A4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>2009</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>520</v>
+      </c>
+      <c r="E4">
+        <v>47</v>
+      </c>
+      <c r="F4">
+        <f>D4/adults!D13</f>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16">
+      <c r="A5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>2009</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <f>D5/adults!D10</f>
+        <v>1.641025641025641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16">
+      <c r="A6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>2009</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>360</v>
+      </c>
+      <c r="E6">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <f>D6/adults!D17</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16">
+      <c r="A7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>2009</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>170</v>
+      </c>
+      <c r="E7">
+        <v>21</v>
+      </c>
+      <c r="F7">
+        <f>D7/adults!D16</f>
+        <v>53.125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16">
+      <c r="A8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>2009</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>910</v>
+      </c>
+      <c r="E8">
+        <v>47</v>
+      </c>
+      <c r="F8">
+        <f>D8/adults!D18</f>
+        <v>505.55555555555554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16">
+      <c r="A9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>2009</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <f>D9/adults!D15</f>
+        <v>2.4827586206896552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16">
+      <c r="A10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>2018</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <f>D10/adults!D30</f>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16">
+      <c r="A11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>2018</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <f>D11/adults!D29</f>
+        <v>5.7142857142857144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16">
+      <c r="A12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <v>2018</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>47</v>
+      </c>
+      <c r="F12">
+        <f>D12/adults!D31</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16">
+      <c r="A13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13">
+        <v>2018</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>90</v>
+      </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <f>D13/adults!D28</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16">
+      <c r="A14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>2018</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>390</v>
+      </c>
+      <c r="E14">
+        <v>32</v>
+      </c>
+      <c r="F14">
+        <f>D14/adults!D35</f>
+        <v>121.875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16">
+      <c r="A15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>2018</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>21</v>
+      </c>
+      <c r="F15">
+        <f>D15/adults!D34</f>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16">
+      <c r="A16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>2018</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>257</v>
+      </c>
+      <c r="E16">
+        <v>47</v>
+      </c>
+      <c r="F16">
+        <f>D16/adults!D36</f>
+        <v>285.55555555555554</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16">
+      <c r="A17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17">
+        <v>2018</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>80</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <f>D17/adults!D33</f>
+        <v>5.0314465408805029</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>